--- a/data/pca/factorExposure/factorExposure_2013-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008085940231240831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001833071866617934</v>
+      </c>
+      <c r="C2">
+        <v>-0.03211215545977111</v>
+      </c>
+      <c r="D2">
+        <v>0.005489044241783666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003621255860240797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006324079404875294</v>
+      </c>
+      <c r="C4">
+        <v>-0.08442234920769824</v>
+      </c>
+      <c r="D4">
+        <v>0.07949585107401305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002457785166821463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01416761421998237</v>
+      </c>
+      <c r="C6">
+        <v>-0.1129023433774383</v>
+      </c>
+      <c r="D6">
+        <v>0.03292828007178999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002107661200813264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005090843507702346</v>
+      </c>
+      <c r="C7">
+        <v>-0.05785263598523504</v>
+      </c>
+      <c r="D7">
+        <v>0.0331467415137944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007849410736134207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005808220285856857</v>
+      </c>
+      <c r="C8">
+        <v>-0.0385550437342944</v>
+      </c>
+      <c r="D8">
+        <v>0.04411442309736483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003435711504627188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004471628493096563</v>
+      </c>
+      <c r="C9">
+        <v>-0.07052229820598699</v>
+      </c>
+      <c r="D9">
+        <v>0.07116409339588446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002197778551120977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005428033479632065</v>
+      </c>
+      <c r="C10">
+        <v>-0.05759104181326053</v>
+      </c>
+      <c r="D10">
+        <v>-0.1976091958224499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002682293600384606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005783138438761469</v>
+      </c>
+      <c r="C11">
+        <v>-0.08055433763768814</v>
+      </c>
+      <c r="D11">
+        <v>0.06030869904220098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004591901048849393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004091327164928076</v>
+      </c>
+      <c r="C12">
+        <v>-0.064408259700644</v>
+      </c>
+      <c r="D12">
+        <v>0.04749230025794803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002084704886323676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008793684843526384</v>
+      </c>
+      <c r="C13">
+        <v>-0.06671491633603049</v>
+      </c>
+      <c r="D13">
+        <v>0.06134401782936763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009765542375246645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001586202511534286</v>
+      </c>
+      <c r="C14">
+        <v>-0.04537167929687302</v>
+      </c>
+      <c r="D14">
+        <v>0.007460232003761366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007256102984405255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006054744178959903</v>
+      </c>
+      <c r="C15">
+        <v>-0.04244122687994711</v>
+      </c>
+      <c r="D15">
+        <v>0.02875415392370569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000898358993166428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005100134880283754</v>
+      </c>
+      <c r="C16">
+        <v>-0.06584652325473089</v>
+      </c>
+      <c r="D16">
+        <v>0.04722889023818969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.784968890927061e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008907132985958594</v>
+      </c>
+      <c r="C20">
+        <v>-0.06540422697276563</v>
+      </c>
+      <c r="D20">
+        <v>0.04141438608924322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005728733950455546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01000065011036785</v>
+      </c>
+      <c r="C21">
+        <v>-0.02107645569469582</v>
+      </c>
+      <c r="D21">
+        <v>0.03988818421452414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01679804833878317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006770603696061541</v>
+      </c>
+      <c r="C22">
+        <v>-0.09397288752548935</v>
+      </c>
+      <c r="D22">
+        <v>0.1083540713611314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0170996120168503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006587260615764009</v>
+      </c>
+      <c r="C23">
+        <v>-0.09479589972728215</v>
+      </c>
+      <c r="D23">
+        <v>0.1083821108916396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0013589025296508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005476910942719384</v>
+      </c>
+      <c r="C24">
+        <v>-0.07661546628277648</v>
+      </c>
+      <c r="D24">
+        <v>0.06114939420154685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003890390533354071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00304260947560869</v>
+      </c>
+      <c r="C25">
+        <v>-0.07871006715821617</v>
+      </c>
+      <c r="D25">
+        <v>0.06645433935154581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004875118286464147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003670716970224574</v>
+      </c>
+      <c r="C26">
+        <v>-0.04168900273698687</v>
+      </c>
+      <c r="D26">
+        <v>0.02053598148914881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00576448802918564</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009082547730331582</v>
+      </c>
+      <c r="C28">
+        <v>-0.1071691583557123</v>
+      </c>
+      <c r="D28">
+        <v>-0.3171638879922257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001023974180695384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003190149017588022</v>
+      </c>
+      <c r="C29">
+        <v>-0.04913424932130682</v>
+      </c>
+      <c r="D29">
+        <v>0.005695503655650055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003374078453896096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009581682150518876</v>
+      </c>
+      <c r="C30">
+        <v>-0.1433566798108942</v>
+      </c>
+      <c r="D30">
+        <v>0.09057275170852681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001131822659808184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006260492326867099</v>
+      </c>
+      <c r="C31">
+        <v>-0.04466532077956168</v>
+      </c>
+      <c r="D31">
+        <v>0.03103588238210274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006232475870307943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004143184928649957</v>
+      </c>
+      <c r="C32">
+        <v>-0.04078588052019048</v>
+      </c>
+      <c r="D32">
+        <v>0.02091379848614726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002683478330548033</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00837622918786717</v>
+      </c>
+      <c r="C33">
+        <v>-0.08584689302820339</v>
+      </c>
+      <c r="D33">
+        <v>0.06769044434370312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004305137703329115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003989728550882848</v>
+      </c>
+      <c r="C34">
+        <v>-0.0580389230679904</v>
+      </c>
+      <c r="D34">
+        <v>0.05420051281336716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001559941660856879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004909887848943164</v>
+      </c>
+      <c r="C35">
+        <v>-0.03962142885046131</v>
+      </c>
+      <c r="D35">
+        <v>0.01857218199592637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003655431367538683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001117549751869957</v>
+      </c>
+      <c r="C36">
+        <v>-0.02456903782457748</v>
+      </c>
+      <c r="D36">
+        <v>0.02110233636843841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002274777444217334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009523593093495706</v>
+      </c>
+      <c r="C38">
+        <v>-0.03561288000658316</v>
+      </c>
+      <c r="D38">
+        <v>0.01452193643161797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01194519754210632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005208976180296813</v>
+      </c>
+      <c r="C39">
+        <v>-0.1160023154091983</v>
+      </c>
+      <c r="D39">
+        <v>0.07291705586275986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01015079251017899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002744582632314197</v>
+      </c>
+      <c r="C40">
+        <v>-0.09124773137480598</v>
+      </c>
+      <c r="D40">
+        <v>0.007731361577287656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001240084412775764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007245266263031316</v>
+      </c>
+      <c r="C41">
+        <v>-0.03803639213883629</v>
+      </c>
+      <c r="D41">
+        <v>0.03419072341583539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002831842361062835</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004035964666161046</v>
+      </c>
+      <c r="C43">
+        <v>-0.05332624904481908</v>
+      </c>
+      <c r="D43">
+        <v>0.02361325187528843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004221353326604347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003446934358706734</v>
+      </c>
+      <c r="C44">
+        <v>-0.1096579246552685</v>
+      </c>
+      <c r="D44">
+        <v>0.06819675398435621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009856036274166614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002221411451674428</v>
+      </c>
+      <c r="C46">
+        <v>-0.03350845527166282</v>
+      </c>
+      <c r="D46">
+        <v>0.03148109306788314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>1.233478683090909e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002709122433491678</v>
+      </c>
+      <c r="C47">
+        <v>-0.03737059046956866</v>
+      </c>
+      <c r="D47">
+        <v>0.02240618074141082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003625952596213484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006600235255947315</v>
+      </c>
+      <c r="C48">
+        <v>-0.03042710471184183</v>
+      </c>
+      <c r="D48">
+        <v>0.03105971605219453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.012086078106646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01536395667856461</v>
+      </c>
+      <c r="C49">
+        <v>-0.1836699503957998</v>
+      </c>
+      <c r="D49">
+        <v>0.01329708246402084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001668772777664976</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003615138150413751</v>
+      </c>
+      <c r="C50">
+        <v>-0.04313510494134015</v>
+      </c>
+      <c r="D50">
+        <v>0.03480488096123214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007193561149516384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004491621478807825</v>
+      </c>
+      <c r="C51">
+        <v>-0.02684964304438886</v>
+      </c>
+      <c r="D51">
+        <v>0.02057676725023837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008135162242425159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02087852319373553</v>
+      </c>
+      <c r="C53">
+        <v>-0.169009014894875</v>
+      </c>
+      <c r="D53">
+        <v>0.0290402360930323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001233687494555624</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008695972102039408</v>
+      </c>
+      <c r="C54">
+        <v>-0.0542753152982328</v>
+      </c>
+      <c r="D54">
+        <v>0.04497347688367075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003847856604967337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00947478702232394</v>
+      </c>
+      <c r="C55">
+        <v>-0.108425144600885</v>
+      </c>
+      <c r="D55">
+        <v>0.03832705350000844</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002744106825148666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02009317653920083</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741845441534501</v>
+      </c>
+      <c r="D56">
+        <v>0.02858575244968753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007153876177652277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01975502145043383</v>
+      </c>
+      <c r="C58">
+        <v>-0.1110589840289863</v>
+      </c>
+      <c r="D58">
+        <v>0.05090527267332244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006966283993321941</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009761963810384036</v>
+      </c>
+      <c r="C59">
+        <v>-0.162672250224225</v>
+      </c>
+      <c r="D59">
+        <v>-0.3181175398125563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003973898613363214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02388844913748827</v>
+      </c>
+      <c r="C60">
+        <v>-0.2211362566314239</v>
+      </c>
+      <c r="D60">
+        <v>0.03426104706431284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01358435734001952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001661794587607533</v>
+      </c>
+      <c r="C61">
+        <v>-0.09555175817851165</v>
+      </c>
+      <c r="D61">
+        <v>0.05811001014747277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.163732688506061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448239215093365</v>
+      </c>
+      <c r="C62">
+        <v>-0.09198151010120464</v>
+      </c>
+      <c r="D62">
+        <v>0.04654494990320181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000823851859420384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006311322728554895</v>
+      </c>
+      <c r="C63">
+        <v>-0.05526709779056615</v>
+      </c>
+      <c r="D63">
+        <v>0.02588600939060618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0005076782645033918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01544234958597817</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059506660054219</v>
+      </c>
+      <c r="D64">
+        <v>0.06032613954622262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002824359928940368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01796354582297739</v>
+      </c>
+      <c r="C65">
+        <v>-0.1228088421982106</v>
+      </c>
+      <c r="D65">
+        <v>0.01748928769736638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007715192547175793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01317159485230958</v>
+      </c>
+      <c r="C66">
+        <v>-0.160548283456931</v>
+      </c>
+      <c r="D66">
+        <v>0.1126674267718637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003542397998616721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01568632559494068</v>
+      </c>
+      <c r="C67">
+        <v>-0.06595123880948278</v>
+      </c>
+      <c r="D67">
+        <v>0.02662012733846521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006497734272054935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000629707986510971</v>
+      </c>
+      <c r="C68">
+        <v>-0.08698078747879948</v>
+      </c>
+      <c r="D68">
+        <v>-0.2589346252062122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002306913147254262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006214907111753137</v>
+      </c>
+      <c r="C69">
+        <v>-0.05059328419993537</v>
+      </c>
+      <c r="D69">
+        <v>0.03894496989496902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000345284047542234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001910255002731744</v>
+      </c>
+      <c r="C70">
+        <v>-0.002676559787049327</v>
+      </c>
+      <c r="D70">
+        <v>0.002582139639551233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004543478394130615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005918303930599078</v>
+      </c>
+      <c r="C71">
+        <v>-0.0967357044951393</v>
+      </c>
+      <c r="D71">
+        <v>-0.3086395928925972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00392274846577884</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01606710471953206</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527948628574327</v>
+      </c>
+      <c r="D72">
+        <v>0.02170738109236546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01160506291444168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.030873812064495</v>
+      </c>
+      <c r="C73">
+        <v>-0.2790664957496054</v>
+      </c>
+      <c r="D73">
+        <v>0.05426445183454387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004656303019066083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001970159752493673</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044643041858931</v>
+      </c>
+      <c r="D74">
+        <v>0.03654047505533642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002626158772935971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01099590164746036</v>
+      </c>
+      <c r="C75">
+        <v>-0.125235361520294</v>
+      </c>
+      <c r="D75">
+        <v>0.02374727032855148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009174824390137641</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177672697301192</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485284851295288</v>
+      </c>
+      <c r="D76">
+        <v>0.06077102409727123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008343261837751455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02388426956680184</v>
+      </c>
+      <c r="C77">
+        <v>-0.1266474634220552</v>
+      </c>
+      <c r="D77">
+        <v>0.09054024601575165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002207062108888597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01479603791079619</v>
+      </c>
+      <c r="C78">
+        <v>-0.09690652169893711</v>
+      </c>
+      <c r="D78">
+        <v>0.06922253525276473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02282282203747496</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03770056556552357</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559593790341154</v>
+      </c>
+      <c r="D79">
+        <v>0.03466341599218798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00645699016719907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047361282000703</v>
+      </c>
+      <c r="C80">
+        <v>-0.04055694173554725</v>
+      </c>
+      <c r="D80">
+        <v>0.02860879536432265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001189472439744602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01537130178500573</v>
+      </c>
+      <c r="C81">
+        <v>-0.12722378133775</v>
+      </c>
+      <c r="D81">
+        <v>0.03989779398984693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006038821823277753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01982685653826671</v>
+      </c>
+      <c r="C82">
+        <v>-0.1407272100248412</v>
+      </c>
+      <c r="D82">
+        <v>0.03951691559273388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008543895642314777</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008454077160574</v>
+      </c>
+      <c r="C83">
+        <v>-0.05740150318474131</v>
+      </c>
+      <c r="D83">
+        <v>0.05546141879755336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01304155152841513</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01172742168653086</v>
+      </c>
+      <c r="C84">
+        <v>-0.037456903286237</v>
+      </c>
+      <c r="D84">
+        <v>-0.01334139556461673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01392091024220355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02825311693485886</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241275508039991</v>
+      </c>
+      <c r="D85">
+        <v>0.04395051076890756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00188948015934318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006074586479107007</v>
+      </c>
+      <c r="C86">
+        <v>-0.0508053516098255</v>
+      </c>
+      <c r="D86">
+        <v>0.02198379878816211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00444946345517541</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01023378311545144</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287665822703319</v>
+      </c>
+      <c r="D87">
+        <v>0.07327119253820295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01175158319931641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002778389068917802</v>
+      </c>
+      <c r="C88">
+        <v>-0.0663681013963609</v>
+      </c>
+      <c r="D88">
+        <v>0.01660903448976915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01414782476345868</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001192559556254561</v>
+      </c>
+      <c r="C89">
+        <v>-0.1472925295113537</v>
+      </c>
+      <c r="D89">
+        <v>-0.3375834522468256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002200982298381162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007132701689863044</v>
+      </c>
+      <c r="C90">
+        <v>-0.1218298599353567</v>
+      </c>
+      <c r="D90">
+        <v>-0.3197216786153553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006626521387423789</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01046200305778936</v>
+      </c>
+      <c r="C91">
+        <v>-0.1017980520364124</v>
+      </c>
+      <c r="D91">
+        <v>0.01971724381064286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007920783009010817</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001069593586040671</v>
+      </c>
+      <c r="C92">
+        <v>-0.1365245012316143</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274225488586949</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003614243667365455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004928770077096391</v>
+      </c>
+      <c r="C93">
+        <v>-0.1053287037507695</v>
+      </c>
+      <c r="D93">
+        <v>-0.3046839559400473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003347582911790424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02257453143530879</v>
+      </c>
+      <c r="C94">
+        <v>-0.1469979024037372</v>
+      </c>
+      <c r="D94">
+        <v>0.05447444184503714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004460318292074705</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01661025458404886</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276740614407958</v>
+      </c>
+      <c r="D95">
+        <v>0.05758897254980702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001827805336366591</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03608698627579009</v>
+      </c>
+      <c r="C97">
+        <v>-0.2123511379415818</v>
+      </c>
+      <c r="D97">
+        <v>-0.01363086980124639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003143099036350212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03669438370951472</v>
+      </c>
+      <c r="C98">
+        <v>-0.2483830976684157</v>
+      </c>
+      <c r="D98">
+        <v>0.05125018488025997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847597766668204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821623283518685</v>
+      </c>
+      <c r="C99">
+        <v>0.11670587110603</v>
+      </c>
+      <c r="D99">
+        <v>-0.02761659771301756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009276747827019615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003227779686672005</v>
+      </c>
+      <c r="C101">
+        <v>-0.04931262785557097</v>
+      </c>
+      <c r="D101">
+        <v>0.005837563680005853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
